--- a/data/trans_orig/IQ2608_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC427345-4CD5-41E7-A402-4E2F8C7F7F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB26FA7-3D55-4379-8387-22953E991EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3A71AE11-3211-460B-A18E-138F755D22A5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AD55710F-DECA-4CE8-B800-820F7E27B4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,177 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
     <t>5,59%</t>
   </si>
   <si>
@@ -80,9 +251,6 @@
     <t>4,47%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>13,69%</t>
   </si>
   <si>
@@ -95,180 +263,432 @@
     <t>11,68%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>6,48%</t>
   </si>
   <si>
@@ -290,424 +710,238 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>4,62%</t>
@@ -735,240 +969,6 @@
   </si>
   <si>
     <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1816D291-301D-4A1B-AA62-3AC5DFB2203D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E249B237-BBB9-4B3B-B5B9-8DC8B26E33DD}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1475,13 +1475,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>1527</v>
+        <v>10117</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1493,10 +1493,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>1118</v>
+        <v>9925</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1508,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>2646</v>
+        <v>20041</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1526,205 +1526,205 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>946</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1979</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>5961</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>6286</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>12246</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3286</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>9420</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>616</v>
+        <v>1229</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2241</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>616</v>
+        <v>3469</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,13 +1739,13 @@
         <v>696</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1754,13 +1754,13 @@
         <v>1246</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1769,259 +1769,259 @@
         <v>1942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1229</v>
+        <v>616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2241</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>3469</v>
+        <v>616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>6133</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>3286</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>9420</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>5961</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>6286</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>12246</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>946</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1979</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>10117</v>
+        <v>1527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>9925</v>
+        <v>1118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>71</v>
       </c>
       <c r="M14" s="7">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>20041</v>
+        <v>2646</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>72</v>
@@ -2089,256 +2089,256 @@
         <v>76</v>
       </c>
       <c r="B16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>6965</v>
+        <v>17489</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11296</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="7">
         <v>41</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6366</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>17</v>
-      </c>
       <c r="N16" s="7">
-        <v>13331</v>
+        <v>28785</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3490</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>4002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>852</v>
+        <v>8019</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>833</v>
+        <v>7513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N18" s="7">
-        <v>1685</v>
+        <v>15533</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>1659</v>
+        <v>6504</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>1275</v>
+        <v>11225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>2934</v>
+        <v>17729</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>866</v>
+        <v>4636</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>1586</v>
+        <v>5745</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N20" s="7">
-        <v>2452</v>
+        <v>10381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,250 +2347,250 @@
         <v>5</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" s="7">
-        <v>11313</v>
+        <v>8292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4533</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="7">
         <v>18</v>
       </c>
-      <c r="I21" s="7">
-        <v>12528</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="7">
-        <v>33</v>
-      </c>
       <c r="N21" s="7">
-        <v>23840</v>
+        <v>12825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>18034</v>
+        <v>764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>8297</v>
+        <v>778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>26331</v>
+        <v>1542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>19446</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>8816</v>
+        <v>842</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>28262</v>
+        <v>842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>20835</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>12324</v>
+        <v>833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>33160</v>
+        <v>833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>6104</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>3694</v>
+        <v>1625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>9799</v>
+        <v>1625</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>145</v>
@@ -2599,52 +2599,52 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>21390</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>418</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>418</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="7">
-        <v>27</v>
-      </c>
-      <c r="I26" s="7">
-        <v>17684</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M26" s="7">
-        <v>53</v>
-      </c>
-      <c r="N26" s="7">
-        <v>39073</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,10 +2653,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="D27" s="7">
-        <v>107464</v>
+        <v>49194</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>75</v>
@@ -2668,10 +2668,10 @@
         <v>75</v>
       </c>
       <c r="H27" s="7">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>73402</v>
+        <v>45320</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>75</v>
@@ -2683,10 +2683,10 @@
         <v>75</v>
       </c>
       <c r="M27" s="7">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="N27" s="7">
-        <v>180866</v>
+        <v>94514</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>75</v>
@@ -2700,259 +2700,259 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="5">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7">
+        <v>21390</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="7">
+        <v>27</v>
+      </c>
+      <c r="I28" s="7">
+        <v>17684</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>418</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>53</v>
+      </c>
+      <c r="N28" s="7">
+        <v>39073</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
-      <c r="N28" s="7">
-        <v>418</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>6104</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>1625</v>
+        <v>3694</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N29" s="7">
-        <v>1625</v>
+        <v>9799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>20835</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7">
-        <v>833</v>
+        <v>12324</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="N30" s="7">
-        <v>833</v>
+        <v>33160</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>19446</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I31" s="7">
-        <v>842</v>
+        <v>8816</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="N31" s="7">
-        <v>842</v>
+        <v>28262</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D32" s="7">
-        <v>764</v>
+        <v>18034</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I32" s="7">
-        <v>778</v>
+        <v>8297</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N32" s="7">
-        <v>1542</v>
+        <v>26331</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,304 +2961,304 @@
         <v>5</v>
       </c>
       <c r="C33" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D33" s="7">
-        <v>8292</v>
+        <v>11313</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="H33" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I33" s="7">
-        <v>4533</v>
+        <v>12528</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="M33" s="7">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N33" s="7">
-        <v>12825</v>
+        <v>23840</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>4636</v>
+        <v>866</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="H34" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>5745</v>
+        <v>1586</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>10381</v>
+        <v>2452</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>6504</v>
+        <v>1659</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>11225</v>
+        <v>1275</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M35" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N35" s="7">
-        <v>17729</v>
+        <v>2934</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C36" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>8019</v>
+        <v>852</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>7513</v>
+        <v>833</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="M36" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>15533</v>
+        <v>1685</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>3490</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M37" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>4002</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D38" s="7">
-        <v>17489</v>
+        <v>6965</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H38" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I38" s="7">
-        <v>11296</v>
+        <v>6366</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M38" s="7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N38" s="7">
-        <v>28785</v>
+        <v>13331</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,10 +3267,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="D39" s="7">
-        <v>49194</v>
+        <v>107464</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>75</v>
@@ -3282,10 +3282,10 @@
         <v>75</v>
       </c>
       <c r="H39" s="7">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="I39" s="7">
-        <v>45320</v>
+        <v>73402</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>75</v>
@@ -3297,10 +3297,10 @@
         <v>75</v>
       </c>
       <c r="M39" s="7">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="N39" s="7">
-        <v>94514</v>
+        <v>180866</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>75</v>
@@ -3317,13 +3317,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="D40" s="7">
-        <v>8492</v>
+        <v>48996</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>224</v>
@@ -3335,10 +3335,10 @@
         <v>226</v>
       </c>
       <c r="H40" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I40" s="7">
-        <v>7902</v>
+        <v>38904</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>227</v>
@@ -3350,10 +3350,10 @@
         <v>229</v>
       </c>
       <c r="M40" s="7">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="N40" s="7">
-        <v>16394</v>
+        <v>87900</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>230</v>
@@ -3368,205 +3368,205 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H41" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I41" s="7">
-        <v>1625</v>
+        <v>5154</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M41" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="N41" s="7">
-        <v>1625</v>
+        <v>15779</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C42" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D42" s="7">
-        <v>852</v>
+        <v>34815</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H42" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I42" s="7">
-        <v>1665</v>
+        <v>26124</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M42" s="7">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="N42" s="7">
-        <v>2517</v>
+        <v>60939</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D43" s="7">
-        <v>1659</v>
+        <v>32083</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H43" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I43" s="7">
-        <v>2117</v>
+        <v>23327</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="N43" s="7">
-        <v>3775</v>
+        <v>55410</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D44" s="7">
-        <v>2247</v>
+        <v>23899</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H44" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I44" s="7">
-        <v>2364</v>
+        <v>16282</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M44" s="7">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N44" s="7">
-        <v>4611</v>
+        <v>40181</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3581,13 @@
         <v>20300</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H45" s="7">
         <v>28</v>
@@ -3596,13 +3596,13 @@
         <v>18307</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M45" s="7">
         <v>55</v>
@@ -3611,214 +3611,214 @@
         <v>38607</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2247</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H46" s="7">
+        <v>3</v>
+      </c>
+      <c r="I46" s="7">
+        <v>2364</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M46" s="7">
         <v>6</v>
       </c>
-      <c r="C46" s="7">
-        <v>33</v>
-      </c>
-      <c r="D46" s="7">
-        <v>23899</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H46" s="7">
-        <v>28</v>
-      </c>
-      <c r="I46" s="7">
-        <v>16282</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M46" s="7">
-        <v>61</v>
-      </c>
       <c r="N46" s="7">
-        <v>40181</v>
+        <v>4611</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>32083</v>
+        <v>1659</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H47" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>23327</v>
+        <v>2117</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M47" s="7">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="N47" s="7">
-        <v>55410</v>
+        <v>3775</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C48" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>34815</v>
+        <v>852</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H48" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I48" s="7">
-        <v>26124</v>
+        <v>1665</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M48" s="7">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="N48" s="7">
-        <v>60939</v>
+        <v>2517</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C49" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>10626</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H49" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I49" s="7">
-        <v>5154</v>
+        <v>1625</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M49" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="N49" s="7">
-        <v>15779</v>
+        <v>1625</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>301</v>
@@ -3827,13 +3827,13 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D50" s="7">
-        <v>48996</v>
+        <v>8492</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>302</v>
@@ -3845,10 +3845,10 @@
         <v>304</v>
       </c>
       <c r="H50" s="7">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I50" s="7">
-        <v>38904</v>
+        <v>7902</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>305</v>
@@ -3860,10 +3860,10 @@
         <v>307</v>
       </c>
       <c r="M50" s="7">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="N50" s="7">
-        <v>87900</v>
+        <v>16394</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>308</v>

--- a/data/trans_orig/IQ2608_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB26FA7-3D55-4379-8387-22953E991EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D102514B-BAD8-4308-A6D3-C3D798CF3150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AD55710F-DECA-4CE8-B800-820F7E27B4F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEBBE909-30E6-4E67-ABF3-1F0917E546CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="362">
   <si>
     <t>Menores según si utilizan camiseta, gorra, gafas de sol o sombrero para protegerse del sol / solo 2023 en 2023 (Tasa respuesta: 24,9%)</t>
   </si>
@@ -65,910 +65,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,05%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>7,2%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1132,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1075,39 +1228,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1159,7 +1312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1270,13 +1423,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1285,6 +1431,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1349,19 +1502,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E249B237-BBB9-4B3B-B5B9-8DC8B26E33DD}">
-  <dimension ref="A1:Q51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B240A94-02E1-4ACD-BF60-91B645619D4F}">
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1478,10 +1651,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>10117</v>
+        <v>7496</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1493,10 +1666,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>9925</v>
+        <v>7443</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1508,10 +1681,10 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>20041</v>
+        <v>14939</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1529,10 +1702,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1544,34 +1717,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>946</v>
+        <v>397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1979</v>
+        <v>397</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,49 +1753,49 @@
         <v>8</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>5961</v>
+        <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>6286</v>
+        <v>3241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>12246</v>
+        <v>5565</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,40 +1804,40 @@
         <v>7</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>6133</v>
+        <v>2921</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>3286</v>
+        <v>1580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>9420</v>
+        <v>4501</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1682,49 +1855,49 @@
         <v>6</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2241</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="7">
-        <v>9</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3469</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,49 +1906,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1246</v>
+        <v>328</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1942</v>
+        <v>328</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,19 +1957,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1805,28 +1978,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1856,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1871,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1907,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1922,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1958,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1973,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,49 +2161,49 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1105</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>724</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
-        <v>1527</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1118</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
       <c r="N14" s="7">
-        <v>2646</v>
+        <v>1830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,102 +2212,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>27312</v>
+        <v>13847</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7">
-        <v>25048</v>
+        <v>13713</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="N15" s="7">
-        <v>52359</v>
+        <v>27560</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>17489</v>
+        <v>13287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>11296</v>
+        <v>11063</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" s="7">
-        <v>28785</v>
+        <v>24350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,49 +2316,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>3490</v>
+        <v>1975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>513</v>
+        <v>1062</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>4002</v>
+        <v>3037</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,49 +2367,49 @@
         <v>8</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8132</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
-        <v>8019</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
       <c r="I18" s="7">
-        <v>7513</v>
+        <v>6555</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>15533</v>
+        <v>14687</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,49 +2418,49 @@
         <v>7</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>6504</v>
+        <v>7799</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>11225</v>
+        <v>5781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>17729</v>
+        <v>13580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,49 +2469,49 @@
         <v>6</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>4636</v>
+        <v>5069</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>5745</v>
+        <v>4604</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>10381</v>
+        <v>9673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,49 +2520,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>8292</v>
+        <v>6033</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>4533</v>
+        <v>3010</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>12825</v>
+        <v>9043</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,16 +2574,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>764</v>
+        <v>616</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2419,28 +2592,28 @@
         <v>778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1542</v>
+        <v>1394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2470,13 +2643,13 @@
         <v>842</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2485,13 +2658,13 @@
         <v>842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,43 +2679,43 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,43 +2730,43 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,49 +2775,49 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>418</v>
+        <v>812</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>418</v>
+        <v>1234</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,102 +2826,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D27" s="7">
-        <v>49194</v>
+        <v>43334</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I27" s="7">
-        <v>45320</v>
+        <v>34507</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>94514</v>
+        <v>77841</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7">
+        <v>16021</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="7">
+        <v>9</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5931</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" s="7">
         <v>26</v>
       </c>
-      <c r="D28" s="7">
-        <v>21390</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" s="7">
-        <v>27</v>
-      </c>
-      <c r="I28" s="7">
-        <v>17684</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M28" s="7">
-        <v>53</v>
-      </c>
       <c r="N28" s="7">
-        <v>39073</v>
+        <v>21953</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,49 +2930,49 @@
         <v>9</v>
       </c>
       <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5587</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1888</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="7">
         <v>8</v>
       </c>
-      <c r="D29" s="7">
-        <v>6104</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3694</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M29" s="7">
-        <v>13</v>
-      </c>
       <c r="N29" s="7">
-        <v>9799</v>
+        <v>7475</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,49 +2981,49 @@
         <v>8</v>
       </c>
       <c r="C30" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>20835</v>
+        <v>8651</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>12324</v>
+        <v>7332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N30" s="7">
-        <v>33160</v>
+        <v>15983</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,49 +3032,49 @@
         <v>7</v>
       </c>
       <c r="C31" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>19446</v>
+        <v>6310</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="7">
-        <v>8816</v>
+        <v>9025</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="M31" s="7">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>28262</v>
+        <v>15335</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,49 +3083,49 @@
         <v>6</v>
       </c>
       <c r="C32" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7">
-        <v>18034</v>
+        <v>8331</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="H32" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I32" s="7">
-        <v>8297</v>
+        <v>5997</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="M32" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N32" s="7">
-        <v>26331</v>
+        <v>14328</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,49 +3134,49 @@
         <v>5</v>
       </c>
       <c r="C33" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D33" s="7">
-        <v>11313</v>
+        <v>5929</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="H33" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I33" s="7">
-        <v>12528</v>
+        <v>4552</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="M33" s="7">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N33" s="7">
-        <v>23840</v>
+        <v>10482</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,46 +3188,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>866</v>
+        <v>764</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>830</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="7">
-        <v>1586</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3</v>
-      </c>
       <c r="N34" s="7">
-        <v>2452</v>
+        <v>1594</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,49 +3236,49 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>1659</v>
+        <v>765</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>2934</v>
+        <v>765</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,49 +3287,49 @@
         <v>2</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="H36" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>833</v>
+        <v>1665</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>1685</v>
+        <v>1665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,43 +3344,43 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,49 +3389,49 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>6965</v>
+        <v>902</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="H38" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>6366</v>
+        <v>778</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="M38" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>13331</v>
+        <v>1679</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,102 +3440,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D39" s="7">
-        <v>107464</v>
+        <v>53262</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="I39" s="7">
-        <v>73402</v>
+        <v>39623</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="N39" s="7">
-        <v>180866</v>
+        <v>92885</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D40" s="7">
-        <v>48996</v>
+        <v>12191</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="H40" s="7">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I40" s="7">
-        <v>38904</v>
+        <v>14466</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="M40" s="7">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="N40" s="7">
-        <v>87900</v>
+        <v>26657</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,49 +3544,49 @@
         <v>9</v>
       </c>
       <c r="C41" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D41" s="7">
-        <v>10626</v>
+        <v>3064</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="H41" s="7">
+        <v>3</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1807</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M41" s="7">
         <v>8</v>
       </c>
-      <c r="I41" s="7">
-        <v>5154</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M41" s="7">
-        <v>22</v>
-      </c>
       <c r="N41" s="7">
-        <v>15779</v>
+        <v>4871</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,49 +3595,49 @@
         <v>8</v>
       </c>
       <c r="C42" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D42" s="7">
-        <v>34815</v>
+        <v>15707</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="H42" s="7">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I42" s="7">
-        <v>26124</v>
+        <v>8996</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="M42" s="7">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="N42" s="7">
-        <v>60939</v>
+        <v>24703</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,49 +3646,49 @@
         <v>7</v>
       </c>
       <c r="C43" s="7">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D43" s="7">
-        <v>32083</v>
+        <v>15053</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="H43" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I43" s="7">
-        <v>23327</v>
+        <v>6941</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="M43" s="7">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N43" s="7">
-        <v>55410</v>
+        <v>21994</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,49 +3697,49 @@
         <v>6</v>
       </c>
       <c r="C44" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D44" s="7">
-        <v>23899</v>
+        <v>10498</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="H44" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I44" s="7">
-        <v>16282</v>
+        <v>5682</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="M44" s="7">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N44" s="7">
-        <v>40181</v>
+        <v>16180</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,49 +3748,49 @@
         <v>5</v>
       </c>
       <c r="C45" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D45" s="7">
-        <v>20300</v>
+        <v>8338</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="H45" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I45" s="7">
-        <v>18307</v>
+        <v>10417</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="M45" s="7">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N45" s="7">
-        <v>38607</v>
+        <v>18754</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,49 +3799,49 @@
         <v>4</v>
       </c>
       <c r="C46" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>2247</v>
+        <v>866</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="H46" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>2364</v>
+        <v>756</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="M46" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>4611</v>
+        <v>1622</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,49 +3850,49 @@
         <v>3</v>
       </c>
       <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
+        <v>893</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H47" s="7">
         <v>2</v>
       </c>
-      <c r="D47" s="7">
-        <v>1659</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H47" s="7">
+      <c r="I47" s="7">
+        <v>1275</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M47" s="7">
         <v>3</v>
       </c>
-      <c r="I47" s="7">
-        <v>2117</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M47" s="7">
-        <v>5</v>
-      </c>
       <c r="N47" s="7">
-        <v>3775</v>
+        <v>2168</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,43 +3907,43 @@
         <v>852</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="H48" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>1665</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="M48" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>2517</v>
+        <v>852</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>296</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,43 +3958,43 @@
         <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="H49" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="M49" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,49 +4003,49 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D50" s="7">
-        <v>8492</v>
+        <v>6063</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="H50" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I50" s="7">
-        <v>7902</v>
+        <v>5588</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="M50" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N50" s="7">
-        <v>16394</v>
+        <v>11651</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,55 +4054,675 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
+        <v>94</v>
+      </c>
+      <c r="D51" s="7">
+        <v>73526</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7">
+        <v>84</v>
+      </c>
+      <c r="I51" s="7">
+        <v>55927</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="7">
+        <v>178</v>
+      </c>
+      <c r="N51" s="7">
+        <v>129453</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="5">
+        <v>10</v>
+      </c>
+      <c r="C52" s="7">
+        <v>71</v>
+      </c>
+      <c r="D52" s="7">
+        <v>48996</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H52" s="7">
+        <v>65</v>
+      </c>
+      <c r="I52" s="7">
+        <v>38904</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M52" s="7">
+        <v>136</v>
+      </c>
+      <c r="N52" s="7">
+        <v>87900</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5">
+        <v>9</v>
+      </c>
+      <c r="C53" s="7">
+        <v>14</v>
+      </c>
+      <c r="D53" s="7">
+        <v>10626</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H53" s="7">
+        <v>8</v>
+      </c>
+      <c r="I53" s="7">
+        <v>5154</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M53" s="7">
+        <v>22</v>
+      </c>
+      <c r="N53" s="7">
+        <v>15779</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5">
+        <v>8</v>
+      </c>
+      <c r="C54" s="7">
+        <v>49</v>
+      </c>
+      <c r="D54" s="7">
+        <v>34815</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" s="7">
+        <v>39</v>
+      </c>
+      <c r="I54" s="7">
+        <v>26124</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M54" s="7">
+        <v>88</v>
+      </c>
+      <c r="N54" s="7">
+        <v>60939</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5">
+        <v>7</v>
+      </c>
+      <c r="C55" s="7">
+        <v>43</v>
+      </c>
+      <c r="D55" s="7">
+        <v>32083</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H55" s="7">
+        <v>34</v>
+      </c>
+      <c r="I55" s="7">
+        <v>23327</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M55" s="7">
+        <v>77</v>
+      </c>
+      <c r="N55" s="7">
+        <v>55410</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7">
+        <v>33</v>
+      </c>
+      <c r="D56" s="7">
+        <v>23899</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="7">
+        <v>28</v>
+      </c>
+      <c r="I56" s="7">
+        <v>16282</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M56" s="7">
+        <v>61</v>
+      </c>
+      <c r="N56" s="7">
+        <v>40181</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5">
+        <v>5</v>
+      </c>
+      <c r="C57" s="7">
+        <v>27</v>
+      </c>
+      <c r="D57" s="7">
+        <v>20300</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H57" s="7">
+        <v>28</v>
+      </c>
+      <c r="I57" s="7">
+        <v>18307</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M57" s="7">
+        <v>55</v>
+      </c>
+      <c r="N57" s="7">
+        <v>38607</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2247</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H58" s="7">
+        <v>3</v>
+      </c>
+      <c r="I58" s="7">
+        <v>2364</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M58" s="7">
+        <v>6</v>
+      </c>
+      <c r="N58" s="7">
+        <v>4611</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
+        <v>2</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1659</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" s="7">
+        <v>3</v>
+      </c>
+      <c r="I59" s="7">
+        <v>2117</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M59" s="7">
+        <v>5</v>
+      </c>
+      <c r="N59" s="7">
+        <v>3775</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>852</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H60" s="7">
+        <v>2</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1665</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M60" s="7">
+        <v>3</v>
+      </c>
+      <c r="N60" s="7">
+        <v>2517</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1625</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" s="7">
+        <v>2</v>
+      </c>
+      <c r="N61" s="7">
+        <v>1625</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>11</v>
+      </c>
+      <c r="D62" s="7">
+        <v>8492</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H62" s="7">
+        <v>12</v>
+      </c>
+      <c r="I62" s="7">
+        <v>7902</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M62" s="7">
+        <v>23</v>
+      </c>
+      <c r="N62" s="7">
+        <v>16394</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7">
         <v>254</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D63" s="7">
         <v>183970</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="E63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="7">
         <v>224</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I63" s="7">
         <v>143770</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M51" s="7">
+      <c r="J63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M63" s="7">
         <v>478</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N63" s="7">
         <v>327739</v>
       </c>
-      <c r="O51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>75</v>
+      <c r="O63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A40:A51"/>
+    <mergeCell ref="A52:A63"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IQ2608_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D102514B-BAD8-4308-A6D3-C3D798CF3150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB01AD8-7003-4A88-BA8A-230E78CC59DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEBBE909-30E6-4E67-ABF3-1F0917E546CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A7C80D0-077B-4C26-83FD-0DDF7B080570}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="368">
   <si>
     <t>Menores según si utilizan camiseta, gorra, gafas de sol o sombrero para protegerse del sol / solo 2023 en 2023 (Tasa respuesta: 24,9%)</t>
   </si>
@@ -71,28 +71,28 @@
     <t>54,14%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>54,28%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
   </si>
   <si>
     <t>54,21%</t>
   </si>
   <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -107,1018 +107,1036 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>17,14%</t>
+    <t>14,97%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>8,38%</t>
+    <t>8,81%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1533,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B240A94-02E1-4ACD-BF60-91B645619D4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A60B80A-8412-49E8-9F35-568DDF27CD7B}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2343,7 +2361,7 @@
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2352,13 +2370,13 @@
         <v>3037</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2391,13 @@
         <v>8132</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -2388,13 +2406,13 @@
         <v>6555</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -2403,13 +2421,13 @@
         <v>14687</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2442,13 @@
         <v>7799</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2439,13 +2457,13 @@
         <v>5781</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -2454,13 +2472,13 @@
         <v>13580</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2493,13 @@
         <v>5069</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2490,13 +2508,13 @@
         <v>4604</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -2505,10 +2523,10 @@
         <v>9673</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>100</v>
@@ -2577,13 +2595,13 @@
         <v>616</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2592,13 +2610,13 @@
         <v>778</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2607,13 +2625,13 @@
         <v>1394</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2643,13 +2661,13 @@
         <v>842</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2658,7 +2676,7 @@
         <v>842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
@@ -2685,7 +2703,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2736,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2802,7 +2820,7 @@
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2811,13 +2829,13 @@
         <v>1234</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2891,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2885,7 +2903,7 @@
         <v>16021</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>130</v>
@@ -2900,13 +2918,13 @@
         <v>5931</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -2918,10 +2936,10 @@
         <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2954,13 @@
         <v>5587</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2951,13 +2969,13 @@
         <v>1888</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2966,13 +2984,13 @@
         <v>7475</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +3005,13 @@
         <v>8651</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3002,13 +3020,13 @@
         <v>7332</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -3017,13 +3035,13 @@
         <v>15983</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3056,13 @@
         <v>6310</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -3053,13 +3071,13 @@
         <v>9025</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -3068,13 +3086,13 @@
         <v>15335</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3107,13 @@
         <v>8331</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -3104,13 +3122,13 @@
         <v>5997</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -3119,10 +3137,10 @@
         <v>14328</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>169</v>
@@ -3173,10 +3191,10 @@
         <v>176</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3209,13 @@
         <v>764</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3206,13 +3224,13 @@
         <v>830</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3221,13 +3239,13 @@
         <v>1594</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,7 +3266,7 @@
         <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3263,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3272,13 +3290,13 @@
         <v>765</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3326,13 @@
         <v>1665</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3323,13 +3341,13 @@
         <v>1665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3377,13 @@
         <v>1625</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3374,13 +3392,13 @@
         <v>1625</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3413,13 @@
         <v>902</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3410,13 +3428,13 @@
         <v>778</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3425,13 +3443,13 @@
         <v>1679</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3505,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3499,13 +3517,13 @@
         <v>12191</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H40" s="7">
         <v>22</v>
@@ -3514,13 +3532,13 @@
         <v>14466</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M40" s="7">
         <v>38</v>
@@ -3529,13 +3547,13 @@
         <v>26657</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3568,13 @@
         <v>3064</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3565,13 +3583,13 @@
         <v>1807</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -3580,13 +3598,13 @@
         <v>4871</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3619,13 @@
         <v>15707</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H42" s="7">
         <v>13</v>
@@ -3616,13 +3634,13 @@
         <v>8996</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M42" s="7">
         <v>33</v>
@@ -3631,13 +3649,13 @@
         <v>24703</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3670,13 @@
         <v>15053</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H43" s="7">
         <v>11</v>
@@ -3667,13 +3685,13 @@
         <v>6941</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M43" s="7">
         <v>29</v>
@@ -3682,13 +3700,13 @@
         <v>21994</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3721,13 @@
         <v>10498</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -3718,13 +3736,13 @@
         <v>5682</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M44" s="7">
         <v>23</v>
@@ -3733,13 +3751,13 @@
         <v>16180</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3772,13 @@
         <v>8338</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H45" s="7">
         <v>15</v>
@@ -3769,13 +3787,13 @@
         <v>10417</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M45" s="7">
         <v>26</v>
@@ -3784,13 +3802,13 @@
         <v>18754</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3823,13 @@
         <v>866</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3820,13 +3838,13 @@
         <v>756</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3835,13 +3853,13 @@
         <v>1622</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3874,13 @@
         <v>893</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3871,13 +3889,13 @@
         <v>1275</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -3886,13 +3904,13 @@
         <v>2168</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3925,13 @@
         <v>852</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3928,7 +3946,7 @@
         <v>20</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -3937,13 +3955,13 @@
         <v>852</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,7 +3982,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3979,7 +3997,7 @@
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -3994,7 +4012,7 @@
         <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4027,13 @@
         <v>6063</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="H50" s="7">
         <v>8</v>
@@ -4024,13 +4042,13 @@
         <v>5588</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -4039,13 +4057,13 @@
         <v>11651</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4131,13 @@
         <v>48996</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H52" s="7">
         <v>65</v>
@@ -4128,13 +4146,13 @@
         <v>38904</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M52" s="7">
         <v>136</v>
@@ -4143,13 +4161,13 @@
         <v>87900</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4182,13 @@
         <v>10626</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H53" s="7">
         <v>8</v>
@@ -4179,13 +4197,13 @@
         <v>5154</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M53" s="7">
         <v>22</v>
@@ -4194,13 +4212,13 @@
         <v>15779</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4233,13 @@
         <v>34815</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H54" s="7">
         <v>39</v>
@@ -4230,13 +4248,13 @@
         <v>26124</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M54" s="7">
         <v>88</v>
@@ -4245,13 +4263,13 @@
         <v>60939</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4284,13 @@
         <v>32083</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H55" s="7">
         <v>34</v>
@@ -4281,13 +4299,13 @@
         <v>23327</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M55" s="7">
         <v>77</v>
@@ -4296,13 +4314,13 @@
         <v>55410</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4335,13 @@
         <v>23899</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H56" s="7">
         <v>28</v>
@@ -4332,13 +4350,13 @@
         <v>16282</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="M56" s="7">
         <v>61</v>
@@ -4347,13 +4365,13 @@
         <v>40181</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4386,13 @@
         <v>20300</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H57" s="7">
         <v>28</v>
@@ -4383,13 +4401,13 @@
         <v>18307</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M57" s="7">
         <v>55</v>
@@ -4398,13 +4416,13 @@
         <v>38607</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4437,13 @@
         <v>2247</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4434,13 +4452,13 @@
         <v>2364</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M58" s="7">
         <v>6</v>
@@ -4449,13 +4467,13 @@
         <v>4611</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4488,13 @@
         <v>1659</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>120</v>
+        <v>341</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -4485,13 +4503,13 @@
         <v>2117</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
@@ -4500,13 +4518,13 @@
         <v>3775</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4539,13 @@
         <v>852</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -4536,13 +4554,13 @@
         <v>1665</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4551,13 +4569,13 @@
         <v>2517</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,7 +4596,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -4587,13 +4605,13 @@
         <v>1625</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4602,13 +4620,13 @@
         <v>1625</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4641,13 @@
         <v>8492</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H62" s="7">
         <v>12</v>
@@ -4638,13 +4656,13 @@
         <v>7902</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>210</v>
+        <v>364</v>
       </c>
       <c r="M62" s="7">
         <v>23</v>
@@ -4653,13 +4671,13 @@
         <v>16394</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4733,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ2608_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB01AD8-7003-4A88-BA8A-230E78CC59DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{271DD039-DFB5-4E44-8E03-B7DA4BF66D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A7C80D0-077B-4C26-83FD-0DDF7B080570}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3E2BF28C-E6F4-4F5F-AFFC-893616CC5F02}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="367">
   <si>
     <t>Menores según si utilizan camiseta, gorra, gafas de sol o sombrero para protegerse del sol / solo 2023 en 2023 (Tasa respuesta: 24,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,103 +68,103 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>15,55%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -173,970 +173,967 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>7,27%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1551,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A60B80A-8412-49E8-9F35-568DDF27CD7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D71B41-A6A3-4020-BE0B-41297CF9BB60}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1669,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>7496</v>
+        <v>7510</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1684,10 +1681,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>7443</v>
+        <v>7864</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1702,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>14939</v>
+        <v>15374</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1720,10 +1717,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1735,16 +1732,16 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -1753,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>25</v>
@@ -1771,10 +1768,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>2324</v>
+        <v>3218</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1786,10 +1783,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>3241</v>
+        <v>2386</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>29</v>
@@ -1804,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>5565</v>
+        <v>5603</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>32</v>
@@ -1822,31 +1819,31 @@
         <v>7</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2921</v>
+        <v>1517</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2913</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1580</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
@@ -1855,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>4501</v>
+        <v>4430</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1879,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1894,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1909,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>44</v>
@@ -1924,46 +1921,46 @@
         <v>5</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>48</v>
@@ -1981,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1996,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2011,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>44</v>
@@ -2032,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2047,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2062,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>44</v>
@@ -2083,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2098,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2113,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>44</v>
@@ -2134,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2149,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2164,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>44</v>
@@ -2179,31 +2176,31 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1105</v>
+        <v>818</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>724</v>
+        <v>1147</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>52</v>
@@ -2212,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>1830</v>
+        <v>1965</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>53</v>
@@ -2230,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>13847</v>
+        <v>13752</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -2245,10 +2242,10 @@
         <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>13713</v>
+        <v>14310</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -2263,7 +2260,7 @@
         <v>55</v>
       </c>
       <c r="N15" s="7">
-        <v>27560</v>
+        <v>28062</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -2283,10 +2280,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>13287</v>
+        <v>11690</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>58</v>
@@ -2298,10 +2295,10 @@
         <v>60</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>11063</v>
+        <v>14122</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>61</v>
@@ -2316,7 +2313,7 @@
         <v>40</v>
       </c>
       <c r="N16" s="7">
-        <v>24350</v>
+        <v>25812</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>64</v>
@@ -2334,49 +2331,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1975</v>
+        <v>1008</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2068</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1062</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>3037</v>
+        <v>3076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,49 +2382,49 @@
         <v>8</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6276</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
-        <v>8132</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
       <c r="I18" s="7">
-        <v>6555</v>
+        <v>8392</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>14687</v>
+        <v>14668</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,49 +2433,49 @@
         <v>7</v>
       </c>
       <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5572</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="7">
         <v>11</v>
       </c>
-      <c r="D19" s="7">
-        <v>7799</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
       <c r="I19" s="7">
-        <v>5781</v>
+        <v>7923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>13580</v>
+        <v>13495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,49 +2484,49 @@
         <v>6</v>
       </c>
       <c r="C20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4425</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="7">
         <v>9</v>
       </c>
-      <c r="D20" s="7">
-        <v>5069</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
       <c r="I20" s="7">
-        <v>4604</v>
+        <v>5016</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>9673</v>
+        <v>9441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2535,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3035</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="7">
         <v>9</v>
       </c>
-      <c r="D21" s="7">
-        <v>6033</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="7">
-        <v>6</v>
-      </c>
       <c r="I21" s="7">
-        <v>3010</v>
+        <v>6212</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>9043</v>
+        <v>9247</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>616</v>
+        <v>713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>778</v>
+        <v>596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1394</v>
+        <v>1309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,49 +2637,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2712,13 +2709,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2727,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2763,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2778,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,49 +2790,49 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>794</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
-        <v>422</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
       <c r="I26" s="7">
-        <v>812</v>
+        <v>433</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D27" s="7">
-        <v>43334</v>
+        <v>34340</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>56</v>
@@ -2859,10 +2856,10 @@
         <v>56</v>
       </c>
       <c r="H27" s="7">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>34507</v>
+        <v>44763</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -2877,7 +2874,7 @@
         <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>77841</v>
+        <v>79104</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -2891,55 +2888,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5945</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="7">
         <v>17</v>
       </c>
-      <c r="D28" s="7">
-        <v>16021</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="7">
-        <v>9</v>
-      </c>
       <c r="I28" s="7">
-        <v>5931</v>
+        <v>17798</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
       </c>
       <c r="N28" s="7">
-        <v>21953</v>
+        <v>23743</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,49 +2945,49 @@
         <v>9</v>
       </c>
       <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1699</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="7">
         <v>6</v>
       </c>
-      <c r="D29" s="7">
-        <v>5587</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
       <c r="I29" s="7">
-        <v>1888</v>
+        <v>5886</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
       </c>
       <c r="N29" s="7">
-        <v>7475</v>
+        <v>7585</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,49 +2996,49 @@
         <v>8</v>
       </c>
       <c r="C30" s="7">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8052</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="7">
         <v>11</v>
       </c>
-      <c r="D30" s="7">
-        <v>8651</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="7">
-        <v>8</v>
-      </c>
       <c r="I30" s="7">
-        <v>7332</v>
+        <v>8334</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
       </c>
       <c r="N30" s="7">
-        <v>15983</v>
+        <v>16387</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,49 +3047,49 @@
         <v>7</v>
       </c>
       <c r="C31" s="7">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7">
+        <v>8965</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="7">
         <v>8</v>
       </c>
-      <c r="D31" s="7">
-        <v>6310</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="7">
-        <v>12</v>
-      </c>
       <c r="I31" s="7">
-        <v>9025</v>
+        <v>6514</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>15335</v>
+        <v>15479</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,49 +3098,49 @@
         <v>6</v>
       </c>
       <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5877</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H32" s="7">
         <v>10</v>
       </c>
-      <c r="D32" s="7">
-        <v>8331</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32" s="7">
-        <v>9</v>
-      </c>
       <c r="I32" s="7">
-        <v>5997</v>
+        <v>8751</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
       </c>
       <c r="N32" s="7">
-        <v>14328</v>
+        <v>14628</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3149,49 @@
         <v>5</v>
       </c>
       <c r="C33" s="7">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4645</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="7">
         <v>7</v>
       </c>
-      <c r="D33" s="7">
-        <v>5929</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" s="7">
-        <v>6</v>
-      </c>
       <c r="I33" s="7">
-        <v>4552</v>
+        <v>6093</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
       </c>
       <c r="N33" s="7">
-        <v>10482</v>
+        <v>10738</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,46 +3203,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>764</v>
+        <v>836</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>830</v>
+        <v>787</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1594</v>
+        <v>1623</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3251,49 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="7">
         <v>1</v>
       </c>
-      <c r="D35" s="7">
-        <v>765</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>765</v>
+        <v>811</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,49 +3302,49 @@
         <v>2</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>1635</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="H36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>1665</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>1665</v>
+        <v>1635</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,49 +3353,49 @@
         <v>1</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,46 +3407,46 @@
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>902</v>
+        <v>748</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>778</v>
+        <v>943</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>1679</v>
+        <v>1692</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,10 +3455,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D39" s="7">
-        <v>53262</v>
+        <v>40007</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>56</v>
@@ -3473,10 +3470,10 @@
         <v>56</v>
       </c>
       <c r="H39" s="7">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I39" s="7">
-        <v>39623</v>
+        <v>55917</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>56</v>
@@ -3491,7 +3488,7 @@
         <v>114</v>
       </c>
       <c r="N39" s="7">
-        <v>92885</v>
+        <v>95924</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -3505,55 +3502,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
       </c>
       <c r="C40" s="7">
+        <v>22</v>
+      </c>
+      <c r="D40" s="7">
+        <v>14570</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="7">
         <v>16</v>
       </c>
-      <c r="D40" s="7">
-        <v>12191</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" s="7">
-        <v>22</v>
-      </c>
       <c r="I40" s="7">
-        <v>14466</v>
+        <v>12701</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M40" s="7">
         <v>38</v>
       </c>
       <c r="N40" s="7">
-        <v>26657</v>
+        <v>27271</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3559,49 @@
         <v>9</v>
       </c>
       <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1775</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="7">
         <v>5</v>
       </c>
-      <c r="D41" s="7">
-        <v>3064</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H41" s="7">
-        <v>3</v>
-      </c>
       <c r="I41" s="7">
-        <v>1807</v>
+        <v>3041</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
       </c>
       <c r="N41" s="7">
-        <v>4871</v>
+        <v>4815</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3610,49 @@
         <v>8</v>
       </c>
       <c r="C42" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D42" s="7">
-        <v>15707</v>
+        <v>8431</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H42" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I42" s="7">
-        <v>8996</v>
+        <v>15772</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M42" s="7">
         <v>33</v>
       </c>
       <c r="N42" s="7">
-        <v>24703</v>
+        <v>24203</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,49 +3661,49 @@
         <v>7</v>
       </c>
       <c r="C43" s="7">
+        <v>11</v>
+      </c>
+      <c r="D43" s="7">
+        <v>6613</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="7">
         <v>18</v>
       </c>
-      <c r="D43" s="7">
-        <v>15053</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H43" s="7">
-        <v>11</v>
-      </c>
       <c r="I43" s="7">
-        <v>6941</v>
+        <v>16793</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M43" s="7">
         <v>29</v>
       </c>
       <c r="N43" s="7">
-        <v>21994</v>
+        <v>23406</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,49 +3712,49 @@
         <v>6</v>
       </c>
       <c r="C44" s="7">
+        <v>9</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5787</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H44" s="7">
         <v>14</v>
       </c>
-      <c r="D44" s="7">
-        <v>10498</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H44" s="7">
-        <v>9</v>
-      </c>
       <c r="I44" s="7">
-        <v>5682</v>
+        <v>10727</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M44" s="7">
         <v>23</v>
       </c>
       <c r="N44" s="7">
-        <v>16180</v>
+        <v>16514</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,49 +3763,49 @@
         <v>5</v>
       </c>
       <c r="C45" s="7">
+        <v>15</v>
+      </c>
+      <c r="D45" s="7">
+        <v>10324</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H45" s="7">
         <v>11</v>
       </c>
-      <c r="D45" s="7">
-        <v>8338</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H45" s="7">
-        <v>15</v>
-      </c>
       <c r="I45" s="7">
-        <v>10417</v>
+        <v>8646</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M45" s="7">
         <v>26</v>
       </c>
       <c r="N45" s="7">
-        <v>18754</v>
+        <v>18970</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,46 +3817,46 @@
         <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>866</v>
+        <v>738</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>756</v>
+        <v>916</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>1622</v>
+        <v>1655</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,49 +3865,49 @@
         <v>3</v>
       </c>
       <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1245</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H47" s="7">
         <v>1</v>
       </c>
-      <c r="D47" s="7">
-        <v>893</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H47" s="7">
-        <v>2</v>
-      </c>
       <c r="I47" s="7">
-        <v>1275</v>
+        <v>922</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
       </c>
       <c r="N47" s="7">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,49 +3916,49 @@
         <v>2</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>268</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>852</v>
+        <v>882</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3991,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4006,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,49 +4018,49 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
+        <v>8</v>
+      </c>
+      <c r="D50" s="7">
+        <v>5512</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H50" s="7">
         <v>7</v>
       </c>
-      <c r="D50" s="7">
-        <v>6063</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="7">
-        <v>8</v>
-      </c>
       <c r="I50" s="7">
-        <v>5588</v>
+        <v>6379</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
       </c>
       <c r="N50" s="7">
-        <v>11651</v>
+        <v>11891</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,10 +4069,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D51" s="7">
-        <v>73526</v>
+        <v>54994</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>56</v>
@@ -4087,10 +4084,10 @@
         <v>56</v>
       </c>
       <c r="H51" s="7">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I51" s="7">
-        <v>55927</v>
+        <v>76779</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>56</v>
@@ -4105,7 +4102,7 @@
         <v>178</v>
       </c>
       <c r="N51" s="7">
-        <v>129453</v>
+        <v>131773</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>56</v>
@@ -4125,49 +4122,49 @@
         <v>10</v>
       </c>
       <c r="C52" s="7">
+        <v>65</v>
+      </c>
+      <c r="D52" s="7">
+        <v>39715</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" s="7">
         <v>71</v>
       </c>
-      <c r="D52" s="7">
-        <v>48996</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H52" s="7">
-        <v>65</v>
-      </c>
       <c r="I52" s="7">
-        <v>38904</v>
+        <v>52486</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M52" s="7">
         <v>136</v>
       </c>
       <c r="N52" s="7">
-        <v>87900</v>
+        <v>92201</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,49 +4173,49 @@
         <v>9</v>
       </c>
       <c r="C53" s="7">
+        <v>8</v>
+      </c>
+      <c r="D53" s="7">
+        <v>4858</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H53" s="7">
         <v>14</v>
       </c>
-      <c r="D53" s="7">
-        <v>10626</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H53" s="7">
-        <v>8</v>
-      </c>
       <c r="I53" s="7">
-        <v>5154</v>
+        <v>10994</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M53" s="7">
         <v>22</v>
       </c>
       <c r="N53" s="7">
-        <v>15779</v>
+        <v>15852</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,49 +4224,49 @@
         <v>8</v>
       </c>
       <c r="C54" s="7">
+        <v>39</v>
+      </c>
+      <c r="D54" s="7">
+        <v>25977</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H54" s="7">
         <v>49</v>
       </c>
-      <c r="D54" s="7">
-        <v>34815</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H54" s="7">
-        <v>39</v>
-      </c>
       <c r="I54" s="7">
-        <v>26124</v>
+        <v>34884</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M54" s="7">
         <v>88</v>
       </c>
       <c r="N54" s="7">
-        <v>60939</v>
+        <v>60861</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>142</v>
+        <v>308</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,49 +4275,49 @@
         <v>7</v>
       </c>
       <c r="C55" s="7">
+        <v>34</v>
+      </c>
+      <c r="D55" s="7">
+        <v>22666</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H55" s="7">
         <v>43</v>
       </c>
-      <c r="D55" s="7">
-        <v>32083</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H55" s="7">
-        <v>34</v>
-      </c>
       <c r="I55" s="7">
-        <v>23327</v>
+        <v>34144</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M55" s="7">
         <v>77</v>
       </c>
       <c r="N55" s="7">
-        <v>55410</v>
+        <v>56810</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,49 +4326,49 @@
         <v>6</v>
       </c>
       <c r="C56" s="7">
+        <v>28</v>
+      </c>
+      <c r="D56" s="7">
+        <v>16089</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H56" s="7">
         <v>33</v>
       </c>
-      <c r="D56" s="7">
-        <v>23899</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H56" s="7">
-        <v>28</v>
-      </c>
       <c r="I56" s="7">
-        <v>16282</v>
+        <v>24493</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M56" s="7">
         <v>61</v>
       </c>
       <c r="N56" s="7">
-        <v>40181</v>
+        <v>40582</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,49 +4377,49 @@
         <v>5</v>
       </c>
       <c r="C57" s="7">
+        <v>28</v>
+      </c>
+      <c r="D57" s="7">
+        <v>18318</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H57" s="7">
         <v>27</v>
       </c>
-      <c r="D57" s="7">
-        <v>20300</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H57" s="7">
-        <v>28</v>
-      </c>
       <c r="I57" s="7">
-        <v>18307</v>
+        <v>20951</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>326</v>
+        <v>91</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M57" s="7">
         <v>55</v>
       </c>
       <c r="N57" s="7">
-        <v>38607</v>
+        <v>39269</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,46 +4431,46 @@
         <v>3</v>
       </c>
       <c r="D58" s="7">
-        <v>2247</v>
+        <v>2287</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
       </c>
       <c r="I58" s="7">
-        <v>2364</v>
+        <v>2300</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M58" s="7">
         <v>6</v>
       </c>
       <c r="N58" s="7">
-        <v>4611</v>
+        <v>4587</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,31 +4479,31 @@
         <v>3</v>
       </c>
       <c r="C59" s="7">
+        <v>3</v>
+      </c>
+      <c r="D59" s="7">
+        <v>2072</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H59" s="7">
         <v>2</v>
       </c>
-      <c r="D59" s="7">
-        <v>1659</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H59" s="7">
-        <v>3</v>
-      </c>
       <c r="I59" s="7">
-        <v>2117</v>
+        <v>1733</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>344</v>
@@ -4515,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="N59" s="7">
-        <v>3775</v>
+        <v>3804</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>345</v>
@@ -4533,31 +4530,31 @@
         <v>2</v>
       </c>
       <c r="C60" s="7">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1635</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H60" s="7">
         <v>1</v>
       </c>
-      <c r="D60" s="7">
-        <v>852</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="I60" s="7">
+        <v>882</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H60" s="7">
-        <v>2</v>
-      </c>
-      <c r="I60" s="7">
-        <v>1665</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="K60" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>350</v>
@@ -4584,13 +4581,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>20</v>
@@ -4599,34 +4596,34 @@
         <v>354</v>
       </c>
       <c r="H61" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
       </c>
       <c r="N61" s="7">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,49 +4632,49 @@
         <v>0</v>
       </c>
       <c r="C62" s="7">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7">
+        <v>7873</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H62" s="7">
         <v>11</v>
       </c>
-      <c r="D62" s="7">
-        <v>8492</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="I62" s="7">
+        <v>8903</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H62" s="7">
-        <v>12</v>
-      </c>
-      <c r="I62" s="7">
-        <v>7902</v>
-      </c>
-      <c r="J62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M62" s="7">
         <v>23</v>
       </c>
       <c r="N62" s="7">
-        <v>16394</v>
+        <v>16776</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,10 +4683,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="D63" s="7">
-        <v>183970</v>
+        <v>143093</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>56</v>
@@ -4701,10 +4698,10 @@
         <v>56</v>
       </c>
       <c r="H63" s="7">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="I63" s="7">
-        <v>143770</v>
+        <v>191770</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>56</v>
@@ -4719,7 +4716,7 @@
         <v>478</v>
       </c>
       <c r="N63" s="7">
-        <v>327739</v>
+        <v>334863</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>56</v>
@@ -4733,7 +4730,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
